--- a/output5/【河洛話注音】桃花源記【廣韻讀音】.xlsx
+++ b/output5/【河洛話注音】桃花源記【廣韻讀音】.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D13440-93C7-46C5-AAA5-1E79EEE9E05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDAC187-5776-4CAB-96B7-5FBAB7ABEA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="797">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1861,10 +1861,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄎㆤˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loo7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1877,10 +1873,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄐㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hut4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1901,10 +1893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄨㄚˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄚㆴ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1913,10 +1901,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄥˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1961,10 +1945,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jip8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2045,14 +2025,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄚˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆤˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>khian2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2269,10 +2241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄞˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uan3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2349,22 +2317,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>siong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kui1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄨㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ko2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2385,10 +2341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄐㄧㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bun7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2497,10 +2449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tiok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2517,14 +2465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kik4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2537,18 +2477,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㆬˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ti1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kok4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2589,18 +2521,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄊㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>king1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㄥˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ping7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2633,18 +2557,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄧㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phin1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄆㄧㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zin2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2677,14 +2593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>suan5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2713,10 +2621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄎㄞˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ti7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2725,14 +2629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>liong5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2761,10 +2657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄠˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nam5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2873,10 +2765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄧㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bui7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2889,10 +2777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄐㄧㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>in</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2937,10 +2821,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄧㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uan5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2953,14 +2833,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>biong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uan2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2981,10 +2853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sim2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3005,10 +2873,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sia2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3037,10 +2901,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㆲˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bun5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3077,10 +2937,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ju5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3109,10 +2965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄠˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sui3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3125,10 +2977,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lun5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3185,14 +3033,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hiong5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3213,10 +3053,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄨㄣˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>giam2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3253,10 +3089,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄜˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hiu7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3269,10 +3101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄧㄨˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>co2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3285,26 +3113,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄘㄨˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cian1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄑㄧㄢˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cut1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄘㄨㆵˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ci2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3317,10 +3133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄘㆤˉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3353,14 +3165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hiong3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3370,6 +3174,190 @@
   </si>
   <si>
     <t>桃花源記【廣韻讀音】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㆤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄥ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄧㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄚ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆬ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄥˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4129,7 +4117,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4422,6 +4410,15 @@
     <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -4440,13 +4437,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5549,7 +5540,7 @@
   </sheetPr>
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -5590,7 +5581,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>799</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -5606,7 +5597,7 @@
         <v>181</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -5643,10 +5634,10 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="99" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -5667,7 +5658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
@@ -5725,7 +5716,7 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="101" t="s">
+      <c r="V3" s="104" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5743,42 +5734,42 @@
         <v>411</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>681</v>
+        <v>652</v>
       </c>
       <c r="K4" s="84" t="s">
         <v>413</v>
       </c>
       <c r="L4" s="84" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="M4" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="N4" s="84" t="s">
-        <v>680</v>
+        <v>651</v>
       </c>
       <c r="O4" s="84" t="s">
         <v>415</v>
       </c>
       <c r="P4" s="84" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="Q4" s="84" t="s">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="R4" s="84" t="s">
         <v>417</v>
       </c>
       <c r="S4" s="93" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="T4" s="1">
         <v>8</v>
       </c>
-      <c r="V4" s="102"/>
+      <c r="V4" s="105"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -5830,7 +5821,7 @@
         <v>197</v>
       </c>
       <c r="S5" s="94"/>
-      <c r="V5" s="102"/>
+      <c r="V5" s="105"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -5847,33 +5838,33 @@
         <v>412</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>691</v>
+        <v>751</v>
       </c>
       <c r="J6" s="85"/>
       <c r="K6" s="85" t="s">
         <v>414</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="M6" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="N6" s="85"/>
       <c r="O6" s="85" t="s">
         <v>416</v>
       </c>
       <c r="P6" s="85" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="Q6" s="85" t="s">
-        <v>754</v>
+        <v>794</v>
       </c>
       <c r="R6" s="85" t="s">
         <v>418</v>
       </c>
       <c r="S6" s="95"/>
-      <c r="V6" s="102"/>
+      <c r="V6" s="105"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -5882,7 +5873,7 @@
       <c r="E7" s="83"/>
       <c r="F7" s="83"/>
       <c r="G7" s="83" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="H7" s="83"/>
       <c r="I7" s="83"/>
@@ -5896,58 +5887,58 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="105"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="84"/>
       <c r="E8" s="84" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="F8" s="84" t="s">
         <v>421</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84" t="s">
-        <v>695</v>
+        <v>753</v>
       </c>
       <c r="J8" s="84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K8" s="84" t="s">
+        <v>424</v>
+      </c>
+      <c r="L8" s="84" t="s">
+        <v>665</v>
+      </c>
+      <c r="M8" s="84" t="s">
+        <v>667</v>
+      </c>
+      <c r="N8" s="84" t="s">
+        <v>651</v>
+      </c>
+      <c r="O8" s="84" t="s">
         <v>425</v>
       </c>
-      <c r="L8" s="84" t="s">
-        <v>697</v>
-      </c>
-      <c r="M8" s="84" t="s">
-        <v>699</v>
-      </c>
-      <c r="N8" s="84" t="s">
-        <v>680</v>
-      </c>
-      <c r="O8" s="84" t="s">
-        <v>427</v>
-      </c>
       <c r="P8" s="84" t="s">
-        <v>755</v>
+        <v>715</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>757</v>
+        <v>717</v>
       </c>
       <c r="R8" s="84" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="S8" s="93" t="s">
-        <v>683</v>
+        <v>654</v>
       </c>
       <c r="T8" s="1">
         <v>1</v>
       </c>
-      <c r="V8" s="102"/>
+      <c r="V8" s="105"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -6001,51 +5992,51 @@
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="105"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="85"/>
       <c r="E10" s="85" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>422</v>
+        <v>752</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85" t="s">
-        <v>696</v>
+        <v>754</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>426</v>
+        <v>755</v>
       </c>
       <c r="L10" s="85" t="s">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="M10" s="85" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
       <c r="N10" s="85"/>
       <c r="O10" s="85" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P10" s="85" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q10" s="85" t="s">
+        <v>718</v>
+      </c>
+      <c r="R10" s="85" t="s">
         <v>756</v>
       </c>
-      <c r="Q10" s="85" t="s">
-        <v>758</v>
-      </c>
-      <c r="R10" s="85" t="s">
-        <v>432</v>
-      </c>
       <c r="S10" s="96"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="105"/>
     </row>
     <row r="11" spans="2:29" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -6065,51 +6056,51 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="105"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="E12" s="84"/>
       <c r="F12" s="84" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="J12" s="84" t="s">
         <v>415</v>
       </c>
       <c r="K12" s="84"/>
       <c r="L12" s="84" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="N12" s="84" t="s">
         <v>365</v>
       </c>
       <c r="O12" s="84" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="P12" s="84"/>
       <c r="Q12" s="84" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="R12" s="84" t="s">
-        <v>775</v>
+        <v>732</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="V12" s="102"/>
+      <c r="V12" s="105"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -6162,51 +6153,51 @@
         <v>221</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="105"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="E14" s="85"/>
       <c r="F14" s="85" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="J14" s="85" t="s">
         <v>416</v>
       </c>
       <c r="K14" s="85"/>
       <c r="L14" s="85" t="s">
-        <v>691</v>
+        <v>751</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="N14" s="85" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="P14" s="85"/>
       <c r="Q14" s="85" t="s">
-        <v>615</v>
+        <v>757</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>776</v>
+        <v>733</v>
       </c>
       <c r="S14" s="96"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="105"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -6226,7 +6217,7 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="105"/>
       <c r="AC15" s="67" t="s">
         <v>184</v>
       </c>
@@ -6234,46 +6225,46 @@
     <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="84" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F16" s="84"/>
       <c r="G16" s="84" t="s">
         <v>380</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="J16" s="84" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="K16" s="84"/>
       <c r="L16" s="84" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="N16" s="84" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="O16" s="84" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P16" s="84" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q16" s="84"/>
       <c r="R16" s="84" t="s">
-        <v>771</v>
+        <v>729</v>
       </c>
       <c r="S16" s="93"/>
-      <c r="V16" s="102"/>
+      <c r="V16" s="105"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -6326,51 +6317,51 @@
         <v>229</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="102"/>
+      <c r="V17" s="105"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="85" t="s">
-        <v>702</v>
+        <v>758</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="85" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>435</v>
+        <v>759</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>617</v>
+        <v>760</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="K18" s="85"/>
       <c r="L18" s="85" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="O18" s="85" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P18" s="85" t="s">
-        <v>426</v>
+        <v>755</v>
       </c>
       <c r="Q18" s="85"/>
       <c r="R18" s="85" t="s">
-        <v>772</v>
+        <v>730</v>
       </c>
       <c r="S18" s="96"/>
-      <c r="V18" s="102"/>
+      <c r="V18" s="105"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -6390,28 +6381,28 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="102"/>
+      <c r="V19" s="105"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="F20" s="84"/>
       <c r="G20" s="84" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J20" s="84" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
@@ -6422,7 +6413,7 @@
       <c r="Q20" s="84"/>
       <c r="R20" s="84"/>
       <c r="S20" s="93"/>
-      <c r="V20" s="102"/>
+      <c r="V20" s="105"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -6461,28 +6452,28 @@
       <c r="Q21" s="80"/>
       <c r="R21" s="80"/>
       <c r="S21" s="94"/>
-      <c r="V21" s="102"/>
+      <c r="V21" s="105"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="F22" s="85"/>
       <c r="G22" s="85" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K22" s="85"/>
       <c r="L22" s="85"/>
@@ -6493,7 +6484,7 @@
       <c r="Q22" s="85"/>
       <c r="R22" s="85"/>
       <c r="S22" s="96"/>
-      <c r="V22" s="103"/>
+      <c r="V22" s="106"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -6611,39 +6602,39 @@
       <c r="D28" s="84"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="H28" s="84" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="I28" s="84" t="s">
         <v>411</v>
       </c>
       <c r="J28" s="84"/>
       <c r="K28" s="84" t="s">
+        <v>438</v>
+      </c>
+      <c r="L28" s="84" t="s">
+        <v>591</v>
+      </c>
+      <c r="M28" s="84" t="s">
+        <v>440</v>
+      </c>
+      <c r="N28" s="84" t="s">
         <v>442</v>
-      </c>
-      <c r="L28" s="84" t="s">
-        <v>610</v>
-      </c>
-      <c r="M28" s="84" t="s">
-        <v>444</v>
-      </c>
-      <c r="N28" s="84" t="s">
-        <v>446</v>
       </c>
       <c r="O28" s="84"/>
       <c r="P28" s="84" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Q28" s="84" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="R28" s="84" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="S28" s="93"/>
       <c r="U28" s="67" t="str">
@@ -6678,8 +6669,8 @@
       <c r="J29" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="K29" s="80" t="s">
-        <v>235</v>
+      <c r="K29" s="110" t="s">
+        <v>406</v>
       </c>
       <c r="L29" s="80" t="s">
         <v>236</v>
@@ -6714,39 +6705,39 @@
       <c r="D30" s="85"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G30" s="85" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="H30" s="85" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="I30" s="85" t="s">
         <v>412</v>
       </c>
       <c r="J30" s="85"/>
       <c r="K30" s="85" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L30" s="85" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="M30" s="85" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="N30" s="85" t="s">
-        <v>447</v>
+        <v>762</v>
       </c>
       <c r="O30" s="85"/>
       <c r="P30" s="85" t="s">
-        <v>447</v>
+        <v>762</v>
       </c>
       <c r="Q30" s="85" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="R30" s="85" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="S30" s="96"/>
       <c r="U30" s="67" t="str">
@@ -6782,43 +6773,43 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="84" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="E32" s="84"/>
       <c r="F32" s="84" t="s">
-        <v>626</v>
+        <v>791</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H32" s="84" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>707</v>
+        <v>674</v>
       </c>
       <c r="K32" s="84"/>
       <c r="L32" s="84" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M32" s="84" t="s">
-        <v>709</v>
+        <v>675</v>
       </c>
       <c r="N32" s="84" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="O32" s="84"/>
       <c r="P32" s="84" t="s">
-        <v>711</v>
+        <v>677</v>
       </c>
       <c r="Q32" s="84" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="R32" s="84" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="S32" s="93"/>
       <c r="U32" s="67" t="str">
@@ -6883,43 +6874,43 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="85" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="E34" s="85"/>
       <c r="F34" s="85" t="s">
-        <v>627</v>
+        <v>792</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H34" s="85" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="I34" s="85" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>708</v>
+        <v>763</v>
       </c>
       <c r="K34" s="85"/>
       <c r="L34" s="85" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M34" s="85" t="s">
-        <v>710</v>
+        <v>676</v>
       </c>
       <c r="N34" s="85" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="O34" s="85"/>
       <c r="P34" s="85" t="s">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="Q34" s="85" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="R34" s="85" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="S34" s="96"/>
       <c r="V34" s="60"/>
@@ -6948,36 +6939,36 @@
       <c r="B36" s="56"/>
       <c r="D36" s="84"/>
       <c r="E36" s="84" t="s">
-        <v>777</v>
+        <v>734</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="H36" s="84"/>
       <c r="I36" s="84" t="s">
-        <v>713</v>
+        <v>679</v>
       </c>
       <c r="J36" s="84" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="L36" s="84"/>
       <c r="M36" s="84" t="s">
-        <v>771</v>
+        <v>729</v>
       </c>
       <c r="N36" s="84" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="O36" s="84" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="P36" s="84" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="Q36" s="84" t="s">
         <v>415</v>
@@ -7021,7 +7012,7 @@
       <c r="M37" s="80" t="s">
         <v>229</v>
       </c>
-      <c r="N37" s="80" t="s">
+      <c r="N37" s="98" t="s">
         <v>200</v>
       </c>
       <c r="O37" s="80" t="s">
@@ -7043,36 +7034,36 @@
       <c r="B38" s="58"/>
       <c r="D38" s="85"/>
       <c r="E38" s="85" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="H38" s="85"/>
       <c r="I38" s="85" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
       <c r="J38" s="85" t="s">
-        <v>604</v>
+        <v>765</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="L38" s="85"/>
       <c r="M38" s="85" t="s">
-        <v>772</v>
+        <v>730</v>
       </c>
       <c r="N38" s="85" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="O38" s="85" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="Q38" s="85" t="s">
         <v>416</v>
@@ -7104,42 +7095,42 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="84" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E40" s="84" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H40" s="84"/>
       <c r="I40" s="84" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="J40" s="84" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="K40" s="84" t="s">
-        <v>638</v>
+        <v>795</v>
       </c>
       <c r="L40" s="84" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M40" s="84"/>
       <c r="N40" s="84" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O40" s="84" t="s">
-        <v>709</v>
+        <v>675</v>
       </c>
       <c r="P40" s="84" t="s">
-        <v>761</v>
+        <v>720</v>
       </c>
       <c r="Q40" s="84" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="R40" s="84"/>
       <c r="S40" s="93"/>
@@ -7186,7 +7177,7 @@
       <c r="O41" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="P41" s="100" t="s">
+      <c r="P41" s="80" t="s">
         <v>264</v>
       </c>
       <c r="Q41" s="80" t="s">
@@ -7201,42 +7192,42 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="85" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>635</v>
+        <v>766</v>
       </c>
       <c r="G42" s="85" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H42" s="85"/>
       <c r="I42" s="85" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J42" s="85" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="K42" s="85" t="s">
-        <v>639</v>
+        <v>796</v>
       </c>
       <c r="L42" s="85" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="M42" s="85"/>
       <c r="N42" s="85" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="O42" s="85" t="s">
-        <v>710</v>
+        <v>676</v>
       </c>
       <c r="P42" s="85" t="s">
-        <v>762</v>
+        <v>721</v>
       </c>
       <c r="Q42" s="85" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="R42" s="85"/>
       <c r="S42" s="96"/>
@@ -7265,41 +7256,41 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="J44" s="84"/>
       <c r="K44" s="84" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="L44" s="84"/>
       <c r="M44" s="84" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N44" s="84" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="P44" s="84"/>
       <c r="Q44" s="84" t="s">
-        <v>779</v>
+        <v>735</v>
       </c>
       <c r="R44" s="84" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="S44" s="93"/>
       <c r="V44" s="60"/>
@@ -7360,41 +7351,41 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="J46" s="85"/>
       <c r="K46" s="85" t="s">
-        <v>581</v>
+        <v>767</v>
       </c>
       <c r="L46" s="85"/>
       <c r="M46" s="85" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="N46" s="85" t="s">
-        <v>426</v>
+        <v>755</v>
       </c>
       <c r="O46" s="85" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="P46" s="85"/>
       <c r="Q46" s="85" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="R46" s="85" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="S46" s="96"/>
       <c r="V46" s="60"/>
@@ -7422,42 +7413,42 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="F48" s="84"/>
       <c r="G48" s="84" t="s">
         <v>388</v>
       </c>
       <c r="H48" s="84" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="I48" s="84" t="s">
-        <v>715</v>
+        <v>681</v>
       </c>
       <c r="J48" s="84" t="s">
-        <v>717</v>
+        <v>682</v>
       </c>
       <c r="K48" s="84"/>
       <c r="L48" s="84" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M48" s="84" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
       <c r="N48" s="84" t="s">
-        <v>763</v>
+        <v>722</v>
       </c>
       <c r="O48" s="84" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="P48" s="84" t="s">
-        <v>719</v>
+        <v>684</v>
       </c>
       <c r="Q48" s="84" t="s">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="R48" s="84"/>
       <c r="S48" s="93"/>
@@ -7498,13 +7489,13 @@
       <c r="M49" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="N49" s="100" t="s">
+      <c r="N49" s="80" t="s">
         <v>274</v>
       </c>
       <c r="O49" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="P49" s="100" t="s">
+      <c r="P49" s="80" t="s">
         <v>373</v>
       </c>
       <c r="Q49" s="80" t="s">
@@ -7519,42 +7510,42 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>647</v>
+        <v>769</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>604</v>
+        <v>765</v>
       </c>
       <c r="F50" s="85"/>
       <c r="G50" s="85" t="s">
-        <v>469</v>
+        <v>770</v>
       </c>
       <c r="H50" s="85" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I50" s="85" t="s">
-        <v>716</v>
+        <v>771</v>
       </c>
       <c r="J50" s="85" t="s">
-        <v>718</v>
+        <v>683</v>
       </c>
       <c r="K50" s="85"/>
       <c r="L50" s="85" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M50" s="85" t="s">
-        <v>691</v>
+        <v>751</v>
       </c>
       <c r="N50" s="85" t="s">
-        <v>764</v>
+        <v>723</v>
       </c>
       <c r="O50" s="85" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="P50" s="85" t="s">
-        <v>720</v>
+        <v>685</v>
       </c>
       <c r="Q50" s="85" t="s">
-        <v>722</v>
+        <v>687</v>
       </c>
       <c r="R50" s="85"/>
       <c r="S50" s="96"/>
@@ -7583,42 +7574,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="84" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>723</v>
+        <v>688</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>725</v>
+        <v>690</v>
       </c>
       <c r="G52" s="84" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="H52" s="84"/>
       <c r="I52" s="84" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="J52" s="84" t="s">
-        <v>727</v>
+        <v>691</v>
       </c>
       <c r="K52" s="84" t="s">
-        <v>765</v>
+        <v>724</v>
       </c>
       <c r="L52" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="M52" s="84"/>
       <c r="N52" s="84" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="Q52" s="84" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="R52" s="84"/>
       <c r="S52" s="93"/>
@@ -7638,7 +7629,7 @@
       <c r="F53" s="80" t="s">
         <v>279</v>
       </c>
-      <c r="G53" s="107" t="s">
+      <c r="G53" s="101" t="s">
         <v>374</v>
       </c>
       <c r="H53" s="81" t="s">
@@ -7680,42 +7671,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="85" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>724</v>
+        <v>689</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>726</v>
+        <v>772</v>
       </c>
       <c r="G54" s="85" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="H54" s="85"/>
       <c r="I54" s="85" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="J54" s="85" t="s">
-        <v>728</v>
+        <v>692</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>766</v>
+        <v>725</v>
       </c>
       <c r="L54" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="M54" s="85"/>
       <c r="N54" s="85" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O54" s="85" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="R54" s="85"/>
       <c r="S54" s="96"/>
@@ -7744,43 +7735,43 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>729</v>
+        <v>693</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G56" s="84" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="H56" s="84" t="s">
         <v>380</v>
       </c>
       <c r="I56" s="84"/>
       <c r="J56" s="84" t="s">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="K56" s="84" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="L56" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="M56" s="84"/>
       <c r="N56" s="84" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="P56" s="84" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="Q56" s="84"/>
       <c r="R56" s="84" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="S56" s="93"/>
       <c r="V56" s="60"/>
@@ -7802,8 +7793,8 @@
       <c r="G57" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="H57" s="107" t="s">
-        <v>689</v>
+      <c r="H57" s="101" t="s">
+        <v>660</v>
       </c>
       <c r="I57" s="80" t="s">
         <v>228</v>
@@ -7841,43 +7832,43 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>730</v>
+        <v>694</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="H58" s="85" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="I58" s="85"/>
       <c r="J58" s="85" t="s">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c r="K58" s="85" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="M58" s="85"/>
       <c r="N58" s="85" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="O58" s="85" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="P58" s="85" t="s">
-        <v>606</v>
+        <v>773</v>
       </c>
       <c r="Q58" s="85"/>
       <c r="R58" s="85" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="S58" s="96"/>
       <c r="V58" s="60"/>
@@ -7905,43 +7896,43 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="84" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="E60" s="84" t="s">
-        <v>711</v>
+        <v>677</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G60" s="84"/>
       <c r="H60" s="84" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="J60" s="84" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K60" s="84"/>
       <c r="L60" s="84" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M60" s="84" t="s">
-        <v>733</v>
+        <v>697</v>
       </c>
       <c r="N60" s="84" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="O60" s="84" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P60" s="84"/>
       <c r="Q60" s="84" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="R60" s="84" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="S60" s="93"/>
       <c r="V60" s="60"/>
@@ -8002,43 +7993,43 @@
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="85" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="E62" s="85" t="s">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G62" s="85"/>
       <c r="H62" s="85" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="J62" s="85" t="s">
-        <v>426</v>
+        <v>755</v>
       </c>
       <c r="K62" s="85"/>
       <c r="L62" s="85" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>734</v>
+        <v>774</v>
       </c>
       <c r="N62" s="85" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="O62" s="85" t="s">
-        <v>468</v>
+        <v>775</v>
       </c>
       <c r="P62" s="85"/>
       <c r="Q62" s="85" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="R62" s="85" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="S62" s="96"/>
       <c r="V62" s="60"/>
@@ -8067,40 +8058,40 @@
       <c r="B64" s="56"/>
       <c r="D64" s="84"/>
       <c r="E64" s="84" t="s">
-        <v>586</v>
+        <v>776</v>
       </c>
       <c r="F64" s="84" t="s">
         <v>388</v>
       </c>
       <c r="G64" s="84"/>
       <c r="H64" s="84" t="s">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="I64" s="84" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="J64" s="84"/>
       <c r="K64" s="84" t="s">
-        <v>781</v>
+        <v>736</v>
       </c>
       <c r="L64" s="84" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
       <c r="M64" s="84" t="s">
-        <v>717</v>
+        <v>682</v>
       </c>
       <c r="N64" s="84" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="O64" s="84" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
       <c r="P64" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="Q64" s="84"/>
       <c r="R64" s="84" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="S64" s="93"/>
       <c r="V64" s="60"/>
@@ -8162,40 +8153,40 @@
       <c r="B66" s="58"/>
       <c r="D66" s="85"/>
       <c r="E66" s="85" t="s">
-        <v>587</v>
+        <v>777</v>
       </c>
       <c r="F66" s="85" t="s">
-        <v>469</v>
+        <v>770</v>
       </c>
       <c r="G66" s="85"/>
       <c r="H66" s="85" t="s">
-        <v>722</v>
+        <v>687</v>
       </c>
       <c r="I66" s="85" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="J66" s="85"/>
       <c r="K66" s="85" t="s">
-        <v>782</v>
+        <v>747</v>
       </c>
       <c r="L66" s="85" t="s">
-        <v>691</v>
+        <v>751</v>
       </c>
       <c r="M66" s="85" t="s">
-        <v>718</v>
+        <v>683</v>
       </c>
       <c r="N66" s="85" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="O66" s="85" t="s">
-        <v>784</v>
+        <v>738</v>
       </c>
       <c r="P66" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="Q66" s="85"/>
       <c r="R66" s="85" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="S66" s="96"/>
       <c r="V66" s="60"/>
@@ -8223,40 +8214,40 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
       <c r="D68" s="84" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E68" s="84" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="F68" s="84" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G68" s="84"/>
       <c r="H68" s="84" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
       <c r="L68" s="84" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
       <c r="M68" s="84" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="N68" s="84" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="O68" s="84" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="P68" s="84" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="Q68" s="84" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="R68" s="84"/>
       <c r="S68" s="93"/>
@@ -8318,40 +8309,40 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="85" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E70" s="85" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F70" s="85" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G70" s="85"/>
       <c r="H70" s="85" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="I70" s="85" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="J70" s="85"/>
       <c r="K70" s="85"/>
       <c r="L70" s="85" t="s">
-        <v>702</v>
+        <v>758</v>
       </c>
       <c r="M70" s="85" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="N70" s="85" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="O70" s="85" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="P70" s="85" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="Q70" s="85" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="R70" s="85"/>
       <c r="S70" s="96"/>
@@ -8380,44 +8371,44 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="84" t="s">
-        <v>735</v>
+        <v>698</v>
       </c>
       <c r="E72" s="84" t="s">
-        <v>785</v>
+        <v>739</v>
       </c>
       <c r="F72" s="84" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="G72" s="84" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H72" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I72" s="84" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="J72" s="84" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
       <c r="K72" s="84" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L72" s="84" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="84" t="s">
-        <v>773</v>
+        <v>731</v>
       </c>
       <c r="O72" s="84" t="s">
-        <v>771</v>
+        <v>729</v>
       </c>
       <c r="P72" s="84" t="s">
-        <v>793</v>
+        <v>746</v>
       </c>
       <c r="Q72" s="84" t="s">
-        <v>737</v>
+        <v>700</v>
       </c>
       <c r="R72" s="84"/>
       <c r="S72" s="93"/>
@@ -8479,44 +8470,44 @@
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
       <c r="D74" s="85" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
       <c r="E74" s="85" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F74" s="85" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="G74" s="85" t="s">
-        <v>684</v>
+        <v>655</v>
       </c>
       <c r="H74" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="I74" s="85" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J74" s="85" t="s">
-        <v>784</v>
+        <v>738</v>
       </c>
       <c r="K74" s="85" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L74" s="85" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="M74" s="85"/>
       <c r="N74" s="85" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="O74" s="85" t="s">
-        <v>772</v>
+        <v>730</v>
       </c>
       <c r="P74" s="85" t="s">
-        <v>794</v>
+        <v>747</v>
       </c>
       <c r="Q74" s="85" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="R74" s="85"/>
       <c r="S74" s="96"/>
@@ -8545,40 +8536,40 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="84" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E76" s="84" t="s">
-        <v>795</v>
+        <v>519</v>
       </c>
       <c r="F76" s="84" t="s">
-        <v>765</v>
+        <v>724</v>
       </c>
       <c r="G76" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="H76" s="84" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="I76" s="84" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="J76" s="84"/>
       <c r="K76" s="84"/>
       <c r="L76" s="84" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M76" s="84"/>
       <c r="N76" s="84" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="O76" s="84" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="P76" s="84" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Q76" s="84" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="R76" s="84"/>
       <c r="S76" s="93"/>
@@ -8592,8 +8583,8 @@
       <c r="D77" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="E77" s="108" t="s">
-        <v>789</v>
+      <c r="E77" s="102" t="s">
+        <v>742</v>
       </c>
       <c r="F77" s="80" t="s">
         <v>281</v>
@@ -8640,40 +8631,40 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="85" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E78" s="85" t="s">
-        <v>796</v>
+        <v>520</v>
       </c>
       <c r="F78" s="85" t="s">
-        <v>766</v>
+        <v>725</v>
       </c>
       <c r="G78" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="H78" s="85" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="I78" s="85" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="J78" s="85"/>
       <c r="K78" s="85"/>
       <c r="L78" s="85" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="M78" s="85"/>
       <c r="N78" s="85" t="s">
-        <v>591</v>
+        <v>781</v>
       </c>
       <c r="O78" s="85" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="P78" s="85" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="Q78" s="85" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="R78" s="85"/>
       <c r="S78" s="96"/>
@@ -8703,29 +8694,29 @@
       <c r="B80" s="56"/>
       <c r="D80" s="84"/>
       <c r="E80" s="84" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>773</v>
+        <v>731</v>
       </c>
       <c r="G80" s="84" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="H80" s="84" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I80" s="84" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="J80" s="84"/>
       <c r="K80" s="84" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="L80" s="84" t="s">
-        <v>739</v>
+        <v>701</v>
       </c>
       <c r="M80" s="84" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="N80" s="84"/>
       <c r="O80" s="84" t="s">
@@ -8733,10 +8724,10 @@
       </c>
       <c r="P80" s="84"/>
       <c r="Q80" s="84" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
       <c r="R80" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="S80" s="93"/>
       <c r="V80" s="60"/>
@@ -8771,7 +8762,7 @@
         <v>217</v>
       </c>
       <c r="L81" s="80" t="s">
-        <v>790</v>
+        <v>743</v>
       </c>
       <c r="M81" s="80" t="s">
         <v>322</v>
@@ -8798,29 +8789,29 @@
       <c r="B82" s="58"/>
       <c r="D82" s="85"/>
       <c r="E82" s="85" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="F82" s="85" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="G82" s="85" t="s">
-        <v>593</v>
+        <v>782</v>
       </c>
       <c r="H82" s="85" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="I82" s="85" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J82" s="85"/>
       <c r="K82" s="85" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="L82" s="85" t="s">
-        <v>740</v>
+        <v>702</v>
       </c>
       <c r="M82" s="85" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="N82" s="85"/>
       <c r="O82" s="85" t="s">
@@ -8828,10 +8819,10 @@
       </c>
       <c r="P82" s="85"/>
       <c r="Q82" s="85" t="s">
-        <v>784</v>
+        <v>738</v>
       </c>
       <c r="R82" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="S82" s="96"/>
       <c r="V82" s="60"/>
@@ -8859,45 +8850,45 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
       <c r="D84" s="84" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="H84" s="84" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I84" s="84" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="J84" s="84" t="s">
-        <v>717</v>
+        <v>682</v>
       </c>
       <c r="K84" s="84"/>
       <c r="L84" s="84" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M84" s="84" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="N84" s="84" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="O84" s="84"/>
       <c r="P84" s="84" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="Q84" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="R84" s="84" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="S84" s="93"/>
       <c r="V84" s="60"/>
@@ -8958,45 +8949,45 @@
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
       <c r="D86" s="85" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E86" s="85" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F86" s="85" t="s">
-        <v>754</v>
+        <v>794</v>
       </c>
       <c r="G86" s="85" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="I86" s="85" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="J86" s="85" t="s">
-        <v>718</v>
+        <v>683</v>
       </c>
       <c r="K86" s="85"/>
       <c r="L86" s="85" t="s">
-        <v>524</v>
+        <v>783</v>
       </c>
       <c r="M86" s="85" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="N86" s="85" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="O86" s="85"/>
       <c r="P86" s="85" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="Q86" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="R86" s="85" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="S86" s="96"/>
       <c r="V86" s="60"/>
@@ -9024,42 +9015,42 @@
     <row r="88" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="56"/>
       <c r="D88" s="84" t="s">
-        <v>771</v>
+        <v>729</v>
       </c>
       <c r="E88" s="84" t="s">
         <v>419</v>
       </c>
       <c r="F88" s="84" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G88" s="84" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H88" s="84" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I88" s="84"/>
       <c r="J88" s="84" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="K88" s="84" t="s">
-        <v>793</v>
+        <v>746</v>
       </c>
       <c r="L88" s="84" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="M88" s="84" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="N88" s="84"/>
       <c r="O88" s="84" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="P88" s="84" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="Q88" s="84" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="R88" s="84"/>
       <c r="S88" s="93"/>
@@ -9121,42 +9112,42 @@
     <row r="90" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="58"/>
       <c r="D90" s="85" t="s">
-        <v>772</v>
+        <v>730</v>
       </c>
       <c r="E90" s="85" t="s">
         <v>420</v>
       </c>
       <c r="F90" s="85" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G90" s="85" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H90" s="85" t="s">
-        <v>468</v>
+        <v>775</v>
       </c>
       <c r="I90" s="85"/>
       <c r="J90" s="85" t="s">
-        <v>524</v>
+        <v>783</v>
       </c>
       <c r="K90" s="85" t="s">
-        <v>794</v>
+        <v>747</v>
       </c>
       <c r="L90" s="85" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="M90" s="85" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="N90" s="85"/>
       <c r="O90" s="85" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="P90" s="85" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="Q90" s="85" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="R90" s="85"/>
       <c r="S90" s="96"/>
@@ -9185,43 +9176,43 @@
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
       <c r="D92" s="84" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E92" s="84" t="s">
-        <v>741</v>
+        <v>703</v>
       </c>
       <c r="F92" s="84"/>
       <c r="G92" s="84" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
       <c r="H92" s="84" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
       <c r="I92" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J92" s="84" t="s">
-        <v>743</v>
+        <v>705</v>
       </c>
       <c r="K92" s="84" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L92" s="84"/>
       <c r="M92" s="84"/>
       <c r="N92" s="84" t="s">
-        <v>773</v>
+        <v>731</v>
       </c>
       <c r="O92" s="84" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="P92" s="84" t="s">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="Q92" s="84" t="s">
-        <v>765</v>
+        <v>724</v>
       </c>
       <c r="R92" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="S92" s="93"/>
       <c r="V92" s="60"/>
@@ -9264,10 +9255,10 @@
       <c r="N93" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="O93" s="108" t="s">
+      <c r="O93" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="P93" s="80" t="s">
+      <c r="P93" s="98" t="s">
         <v>196</v>
       </c>
       <c r="Q93" s="80" t="s">
@@ -9282,43 +9273,43 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="85" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E94" s="85" t="s">
-        <v>742</v>
+        <v>704</v>
       </c>
       <c r="F94" s="85"/>
       <c r="G94" s="85" t="s">
-        <v>784</v>
+        <v>738</v>
       </c>
       <c r="H94" s="85" t="s">
-        <v>691</v>
+        <v>751</v>
       </c>
       <c r="I94" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="J94" s="85" t="s">
-        <v>744</v>
+        <v>706</v>
       </c>
       <c r="K94" s="85" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L94" s="85"/>
       <c r="M94" s="85"/>
       <c r="N94" s="85" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="O94" s="85" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="P94" s="85" t="s">
-        <v>754</v>
+        <v>794</v>
       </c>
       <c r="Q94" s="85" t="s">
-        <v>766</v>
+        <v>725</v>
       </c>
       <c r="R94" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="S94" s="96"/>
       <c r="V94" s="60"/>
@@ -9346,10 +9337,10 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="84" t="s">
-        <v>767</v>
+        <v>726</v>
       </c>
       <c r="E96" s="84" t="s">
-        <v>685</v>
+        <v>656</v>
       </c>
       <c r="F96" s="84"/>
       <c r="G96" s="84"/>
@@ -9401,10 +9392,10 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="85" t="s">
-        <v>768</v>
+        <v>727</v>
       </c>
       <c r="E98" s="85" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="F98" s="85"/>
       <c r="G98" s="85"/>
@@ -9530,37 +9521,37 @@
       <c r="D104" s="84"/>
       <c r="E104" s="84"/>
       <c r="F104" s="84" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G104" s="84" t="s">
-        <v>793</v>
+        <v>746</v>
       </c>
       <c r="H104" s="84"/>
       <c r="I104" s="84" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="J104" s="84" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K104" s="84" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="L104" s="84"/>
       <c r="M104" s="84" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N104" s="84" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="O104" s="84" t="s">
-        <v>797</v>
+        <v>748</v>
       </c>
       <c r="P104" s="84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q104" s="84"/>
       <c r="R104" s="84" t="s">
-        <v>787</v>
+        <v>740</v>
       </c>
       <c r="S104" s="93"/>
       <c r="V104" s="60"/>
@@ -9579,7 +9570,7 @@
       <c r="F105" s="80" t="s">
         <v>336</v>
       </c>
-      <c r="G105" s="107" t="s">
+      <c r="G105" s="101" t="s">
         <v>313</v>
       </c>
       <c r="H105" s="80" t="s">
@@ -9603,7 +9594,7 @@
       <c r="N105" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="O105" s="108" t="s">
+      <c r="O105" s="102" t="s">
         <v>400</v>
       </c>
       <c r="P105" s="80" t="s">
@@ -9623,37 +9614,37 @@
       <c r="D106" s="85"/>
       <c r="E106" s="85"/>
       <c r="F106" s="85" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G106" s="85" t="s">
-        <v>794</v>
+        <v>747</v>
       </c>
       <c r="H106" s="85"/>
       <c r="I106" s="85" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="J106" s="85" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K106" s="85" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="N106" s="85" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="O106" s="85" t="s">
-        <v>798</v>
+        <v>749</v>
       </c>
       <c r="P106" s="85" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q106" s="85"/>
       <c r="R106" s="85" t="s">
-        <v>788</v>
+        <v>741</v>
       </c>
       <c r="S106" s="96"/>
       <c r="V106" s="60"/>
@@ -9681,43 +9672,43 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="84" t="s">
-        <v>787</v>
+        <v>740</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G108" s="84"/>
       <c r="H108" s="84" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="I108" s="84" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="J108" s="84" t="s">
-        <v>745</v>
+        <v>707</v>
       </c>
       <c r="K108" s="84"/>
       <c r="L108" s="84" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="M108" s="84" t="s">
         <v>409</v>
       </c>
       <c r="N108" s="84" t="s">
-        <v>747</v>
+        <v>709</v>
       </c>
       <c r="O108" s="84"/>
       <c r="P108" s="84" t="s">
-        <v>749</v>
+        <v>711</v>
       </c>
       <c r="Q108" s="84" t="s">
-        <v>727</v>
+        <v>691</v>
       </c>
       <c r="R108" s="84" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
       <c r="S108" s="93"/>
       <c r="V108" s="60"/>
@@ -9778,43 +9769,43 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="85" t="s">
-        <v>788</v>
+        <v>741</v>
       </c>
       <c r="E110" s="85" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F110" s="85" t="s">
-        <v>426</v>
+        <v>755</v>
       </c>
       <c r="G110" s="85"/>
       <c r="H110" s="85" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="I110" s="85" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="J110" s="85" t="s">
-        <v>746</v>
+        <v>708</v>
       </c>
       <c r="K110" s="85"/>
       <c r="L110" s="85" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M110" s="85" t="s">
         <v>410</v>
       </c>
       <c r="N110" s="85" t="s">
-        <v>748</v>
+        <v>710</v>
       </c>
       <c r="O110" s="85"/>
       <c r="P110" s="85" t="s">
-        <v>750</v>
+        <v>712</v>
       </c>
       <c r="Q110" s="85" t="s">
-        <v>728</v>
+        <v>692</v>
       </c>
       <c r="R110" s="85" t="s">
-        <v>784</v>
+        <v>738</v>
       </c>
       <c r="S110" s="96"/>
       <c r="V110" s="60"/>
@@ -9846,38 +9837,38 @@
         <v>409</v>
       </c>
       <c r="F112" s="84" t="s">
-        <v>747</v>
+        <v>709</v>
       </c>
       <c r="G112" s="84" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H112" s="84" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J112" s="84" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="K112" s="84" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L112" s="84" t="s">
-        <v>763</v>
+        <v>722</v>
       </c>
       <c r="M112" s="84"/>
       <c r="N112" s="84" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="O112" s="84" t="s">
-        <v>797</v>
+        <v>748</v>
       </c>
       <c r="P112" s="84" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="Q112" s="84" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="R112" s="84"/>
       <c r="S112" s="93"/>
@@ -9921,7 +9912,7 @@
       <c r="N113" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="O113" s="108" t="s">
+      <c r="O113" s="102" t="s">
         <v>400</v>
       </c>
       <c r="P113" s="80" t="s">
@@ -9943,38 +9934,38 @@
         <v>410</v>
       </c>
       <c r="F114" s="85" t="s">
-        <v>748</v>
+        <v>710</v>
       </c>
       <c r="G114" s="85" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="H114" s="85" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="J114" s="85" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="K114" s="85" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L114" s="85" t="s">
-        <v>764</v>
+        <v>723</v>
       </c>
       <c r="M114" s="85"/>
       <c r="N114" s="85" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="O114" s="85" t="s">
-        <v>798</v>
+        <v>749</v>
       </c>
       <c r="P114" s="85" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="Q114" s="85" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="R114" s="85"/>
       <c r="S114" s="96"/>
@@ -10003,22 +9994,22 @@
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
       <c r="D116" s="84" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="F116" s="84" t="s">
-        <v>773</v>
+        <v>731</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>771</v>
+        <v>729</v>
       </c>
       <c r="H116" s="84" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="I116" s="84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J116" s="84"/>
       <c r="K116" s="84"/>
@@ -10072,22 +10063,22 @@
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
       <c r="D118" s="85" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E118" s="85" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="F118" s="85" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="G118" s="85" t="s">
-        <v>772</v>
+        <v>730</v>
       </c>
       <c r="H118" s="85" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="I118" s="85" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J118" s="85"/>
       <c r="K118" s="85"/>
@@ -10209,39 +10200,39 @@
       <c r="D124" s="84"/>
       <c r="E124" s="84"/>
       <c r="F124" s="84" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="G124" s="84" t="s">
-        <v>687</v>
+        <v>658</v>
       </c>
       <c r="H124" s="84" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="I124" s="84" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="J124" s="84" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="K124" s="84"/>
       <c r="L124" s="84" t="s">
-        <v>769</v>
+        <v>728</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>544</v>
+        <v>785</v>
       </c>
       <c r="N124" s="84" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="O124" s="84" t="s">
-        <v>685</v>
+        <v>656</v>
       </c>
       <c r="P124" s="84"/>
       <c r="Q124" s="84" t="s">
-        <v>717</v>
+        <v>682</v>
       </c>
       <c r="R124" s="84" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S124" s="93"/>
       <c r="V124" s="60"/>
@@ -10279,10 +10270,10 @@
         <v>351</v>
       </c>
       <c r="M125" s="80" t="s">
-        <v>791</v>
-      </c>
-      <c r="N125" s="109" t="s">
-        <v>792</v>
+        <v>744</v>
+      </c>
+      <c r="N125" s="103" t="s">
+        <v>745</v>
       </c>
       <c r="O125" s="80" t="s">
         <v>335</v>
@@ -10304,39 +10295,39 @@
       <c r="D126" s="85"/>
       <c r="E126" s="85"/>
       <c r="F126" s="85" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="G126" s="85" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="H126" s="85" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="I126" s="85" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="J126" s="85" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="K126" s="85"/>
       <c r="L126" s="85" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="M126" s="85" t="s">
-        <v>545</v>
+        <v>786</v>
       </c>
       <c r="N126" s="85" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="O126" s="85" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="P126" s="85"/>
       <c r="Q126" s="85" t="s">
-        <v>718</v>
+        <v>683</v>
       </c>
       <c r="R126" s="85" t="s">
-        <v>426</v>
+        <v>755</v>
       </c>
       <c r="S126" s="96"/>
       <c r="V126" s="60"/>
@@ -10365,40 +10356,40 @@
       <c r="B128" s="56"/>
       <c r="D128" s="84"/>
       <c r="E128" s="84" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="F128" s="84" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G128" s="84" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="H128" s="84" t="s">
-        <v>763</v>
+        <v>722</v>
       </c>
       <c r="I128" s="84"/>
       <c r="J128" s="84" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="K128" s="84" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="L128" s="84"/>
       <c r="M128" s="84" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="N128" s="84" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="O128" s="84" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="P128" s="84"/>
       <c r="Q128" s="84" t="s">
-        <v>751</v>
+        <v>713</v>
       </c>
       <c r="R128" s="84" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="S128" s="93"/>
       <c r="V128" s="60"/>
@@ -10412,7 +10403,7 @@
         <v>190</v>
       </c>
       <c r="E129" s="100" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="F129" s="80" t="s">
         <v>256</v>
@@ -10460,40 +10451,40 @@
       <c r="B130" s="58"/>
       <c r="D130" s="85"/>
       <c r="E130" s="85" t="s">
-        <v>675</v>
+        <v>787</v>
       </c>
       <c r="F130" s="85" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G130" s="85" t="s">
-        <v>547</v>
+        <v>788</v>
       </c>
       <c r="H130" s="85" t="s">
-        <v>764</v>
+        <v>723</v>
       </c>
       <c r="I130" s="85"/>
       <c r="J130" s="85" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="K130" s="85" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="L130" s="85"/>
       <c r="M130" s="85" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="N130" s="85" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="O130" s="85" t="s">
-        <v>553</v>
+        <v>789</v>
       </c>
       <c r="P130" s="85"/>
       <c r="Q130" s="85" t="s">
-        <v>752</v>
+        <v>714</v>
       </c>
       <c r="R130" s="85" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="S130" s="96"/>
       <c r="V130" s="60"/>
@@ -10521,16 +10512,16 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="84" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E132" s="84" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="G132" s="84" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="H132" s="84"/>
       <c r="I132" s="84"/>
@@ -10582,16 +10573,16 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="85" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E134" s="85" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F134" s="85" t="s">
-        <v>679</v>
+        <v>790</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="H134" s="85"/>
       <c r="I134" s="85"/>
@@ -13031,7 +13022,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="107" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -13049,7 +13040,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="107" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -13074,7 +13065,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="105"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -13094,7 +13085,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="105"/>
+      <c r="I6" s="108"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -13116,7 +13107,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="105"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -13132,7 +13123,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="105"/>
+      <c r="I7" s="108"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -13154,7 +13145,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="105"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -13170,7 +13161,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="105"/>
+      <c r="I8" s="108"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -13192,7 +13183,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="105"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -13208,7 +13199,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="105"/>
+      <c r="I9" s="108"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -13230,7 +13221,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="106"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -13246,7 +13237,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="106"/>
+      <c r="I10" s="109"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -13269,7 +13260,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -13287,7 +13278,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="I11" s="107" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -13311,7 +13302,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="105"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -13331,7 +13322,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="105"/>
+      <c r="I12" s="108"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -13351,7 +13342,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="105"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -13365,7 +13356,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="105"/>
+      <c r="I13" s="108"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -13385,7 +13376,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="105"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -13399,7 +13390,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="105"/>
+      <c r="I14" s="108"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -13419,7 +13410,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="105"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -13433,7 +13424,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="105"/>
+      <c r="I15" s="108"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -13453,7 +13444,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="106"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -13467,7 +13458,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="106"/>
+      <c r="I16" s="109"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
